--- a/mes-modules/produce/src/main/resources/excel/heatTreatLabel.xlsx
+++ b/mes-modules/produce/src/main/resources/excel/heatTreatLabel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16675\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16675\IdeaProjects\mes-backend\mes-modules\produce\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E62324-D2C0-4C36-88A7-DE7A938E595F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2009EB55-662F-4AC0-8BA7-66EF3B1D9454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="2960" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>热工分公司MES系统</t>
   </si>
   <si>
-    <t>30mm</t>
-  </si>
-  <si>
     <t>工作号</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>50mm</t>
   </si>
 </sst>
 </file>
@@ -194,6 +188,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -201,12 +201,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,7 +509,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -534,79 +528,75 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -615,17 +605,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G1:G6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B6:F6"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G1:G6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mes-modules/produce/src/main/resources/excel/heatTreatLabel.xlsx
+++ b/mes-modules/produce/src/main/resources/excel/heatTreatLabel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16675\IdeaProjects\mes-backend\mes-modules\produce\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2009EB55-662F-4AC0-8BA7-66EF3B1D9454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE2C215-D734-4DF9-81EB-C08BD270D004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>热工分公司MES系统</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>送交单位</t>
-  </si>
-  <si>
-    <t>默认来料单位（可下拉选择）</t>
   </si>
   <si>
     <t>炉号</t>
@@ -59,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +67,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -182,25 +187,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,7 +514,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -520,102 +525,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="G1:G6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G1:G6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
